--- a/ProbableCasesOverTimeByCounty/2021-02-09.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-02-09.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/08/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/09/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Probable 2021-02-08</t>
+  </si>
+  <si>
+    <t>Probable 2021-02-09</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1299,6 +1302,7 @@
     <col min="99" max="99" width="12.0" customWidth="true"/>
     <col min="100" max="100" width="12.0" customWidth="true"/>
     <col min="101" max="101" width="12.0" customWidth="true"/>
+    <col min="102" max="102" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1615,10 +1619,13 @@
       <c r="CW3" t="s" s="10">
         <v>102</v>
       </c>
+      <c r="CX3" t="s" s="10">
+        <v>103</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -1919,11 +1926,14 @@
       </c>
       <c r="CW4" t="n">
         <v>1221.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>1225.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2223,12 +2233,15 @@
         <v>0.0</v>
       </c>
       <c r="CW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2528,12 +2541,15 @@
         <v>3059.0</v>
       </c>
       <c r="CW6" t="n">
+        <v>3059.0</v>
+      </c>
+      <c r="CX6" t="n">
         <v>3059.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -2834,11 +2850,14 @@
       </c>
       <c r="CW7" t="n">
         <v>274.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>278.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3138,12 +3157,15 @@
         <v>92.0</v>
       </c>
       <c r="CW8" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="CX8" t="n">
         <v>92.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3444,11 +3466,14 @@
       </c>
       <c r="CW9" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -3749,11 +3774,14 @@
       </c>
       <c r="CW10" t="n">
         <v>1125.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>1137.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4054,11 +4082,14 @@
       </c>
       <c r="CW11" t="n">
         <v>238.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>239.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -4359,11 +4390,14 @@
       </c>
       <c r="CW12" t="n">
         <v>205.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -4664,11 +4698,14 @@
       </c>
       <c r="CW13" t="n">
         <v>264.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>270.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -4969,11 +5006,14 @@
       </c>
       <c r="CW14" t="n">
         <v>1770.0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>1775.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -5273,12 +5313,15 @@
         <v>175.0</v>
       </c>
       <c r="CW15" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="CX15" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -5579,11 +5622,14 @@
       </c>
       <c r="CW16" t="n">
         <v>426.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>432.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5883,12 +5929,15 @@
         <v>0.0</v>
       </c>
       <c r="CW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -6189,11 +6238,14 @@
       </c>
       <c r="CW18" t="n">
         <v>28593.0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>28670.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -6493,12 +6545,15 @@
         <v>101.0</v>
       </c>
       <c r="CW19" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="CX19" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -6798,12 +6853,15 @@
         <v>6.0</v>
       </c>
       <c r="CW20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CX20" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -7104,11 +7162,14 @@
       </c>
       <c r="CW21" t="n">
         <v>271.0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -7409,11 +7470,14 @@
       </c>
       <c r="CW22" t="n">
         <v>1801.0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>1808.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -7714,11 +7778,14 @@
       </c>
       <c r="CW23" t="n">
         <v>4266.0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>4290.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -8019,11 +8086,14 @@
       </c>
       <c r="CW24" t="n">
         <v>3330.0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>3386.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -8323,12 +8393,15 @@
         <v>72.0</v>
       </c>
       <c r="CW25" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CX25" t="n">
         <v>73.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -8628,12 +8701,15 @@
         <v>56.0</v>
       </c>
       <c r="CW26" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="CX26" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -8934,11 +9010,14 @@
       </c>
       <c r="CW27" t="n">
         <v>108.0</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -9238,12 +9317,15 @@
         <v>2038.0</v>
       </c>
       <c r="CW28" t="n">
+        <v>2038.0</v>
+      </c>
+      <c r="CX28" t="n">
         <v>2038.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -9543,12 +9625,15 @@
         <v>366.0</v>
       </c>
       <c r="CW29" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="CX29" t="n">
         <v>373.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -9849,11 +9934,14 @@
       </c>
       <c r="CW30" t="n">
         <v>359.0</v>
+      </c>
+      <c r="CX30" t="n">
+        <v>360.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -10154,11 +10242,14 @@
       </c>
       <c r="CW31" t="n">
         <v>259.0</v>
+      </c>
+      <c r="CX31" t="n">
+        <v>260.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -10459,11 +10550,14 @@
       </c>
       <c r="CW32" t="n">
         <v>165.0</v>
+      </c>
+      <c r="CX32" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -10764,11 +10858,14 @@
       </c>
       <c r="CW33" t="n">
         <v>526.0</v>
+      </c>
+      <c r="CX33" t="n">
+        <v>528.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -11068,12 +11165,15 @@
         <v>0.0</v>
       </c>
       <c r="CW34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -11374,11 +11474,14 @@
       </c>
       <c r="CW35" t="n">
         <v>363.0</v>
+      </c>
+      <c r="CX35" t="n">
+        <v>362.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -11679,11 +11782,14 @@
       </c>
       <c r="CW36" t="n">
         <v>139.0</v>
+      </c>
+      <c r="CX36" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -11984,11 +12090,14 @@
       </c>
       <c r="CW37" t="n">
         <v>620.0</v>
+      </c>
+      <c r="CX37" t="n">
+        <v>624.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -12289,11 +12398,14 @@
       </c>
       <c r="CW38" t="n">
         <v>247.0</v>
+      </c>
+      <c r="CX38" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -12593,12 +12705,15 @@
         <v>0.0</v>
       </c>
       <c r="CW39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -12899,11 +13014,14 @@
       </c>
       <c r="CW40" t="n">
         <v>1708.0</v>
+      </c>
+      <c r="CX40" t="n">
+        <v>1742.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -13204,11 +13322,14 @@
       </c>
       <c r="CW41" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CX41" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -13509,11 +13630,14 @@
       </c>
       <c r="CW42" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CX42" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -13813,12 +13937,15 @@
         <v>22.0</v>
       </c>
       <c r="CW43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CX43" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -14118,12 +14245,15 @@
         <v>226.0</v>
       </c>
       <c r="CW44" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="CX44" t="n">
         <v>226.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -14424,11 +14554,14 @@
       </c>
       <c r="CW45" t="n">
         <v>223.0</v>
+      </c>
+      <c r="CX45" t="n">
+        <v>229.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -14729,11 +14862,14 @@
       </c>
       <c r="CW46" t="n">
         <v>11394.0</v>
+      </c>
+      <c r="CX46" t="n">
+        <v>11477.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -15034,11 +15170,14 @@
       </c>
       <c r="CW47" t="n">
         <v>69.0</v>
+      </c>
+      <c r="CX47" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -15338,12 +15477,15 @@
         <v>222.0</v>
       </c>
       <c r="CW48" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="CX48" t="n">
         <v>222.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -15644,11 +15786,14 @@
       </c>
       <c r="CW49" t="n">
         <v>4041.0</v>
+      </c>
+      <c r="CX49" t="n">
+        <v>4075.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -15949,11 +16094,14 @@
       </c>
       <c r="CW50" t="n">
         <v>224.0</v>
+      </c>
+      <c r="CX50" t="n">
+        <v>227.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -16254,11 +16402,14 @@
       </c>
       <c r="CW51" t="n">
         <v>135.0</v>
+      </c>
+      <c r="CX51" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -16558,12 +16709,15 @@
         <v>391.0</v>
       </c>
       <c r="CW52" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="CX52" t="n">
         <v>391.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -16864,11 +17018,14 @@
       </c>
       <c r="CW53" t="n">
         <v>207.0</v>
+      </c>
+      <c r="CX53" t="n">
+        <v>216.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -17168,12 +17325,15 @@
         <v>45.0</v>
       </c>
       <c r="CW54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CX54" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -17473,12 +17633,15 @@
         <v>297.0</v>
       </c>
       <c r="CW55" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="CX55" t="n">
         <v>297.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -17779,11 +17942,14 @@
       </c>
       <c r="CW56" t="n">
         <v>327.0</v>
+      </c>
+      <c r="CX56" t="n">
+        <v>330.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -18084,11 +18250,14 @@
       </c>
       <c r="CW57" t="n">
         <v>163.0</v>
+      </c>
+      <c r="CX57" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -18388,12 +18557,15 @@
         <v>22.0</v>
       </c>
       <c r="CW58" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CX58" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -18693,12 +18865,15 @@
         <v>47.0</v>
       </c>
       <c r="CW59" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CX59" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -18999,11 +19174,14 @@
       </c>
       <c r="CW60" t="n">
         <v>32314.0</v>
+      </c>
+      <c r="CX60" t="n">
+        <v>32524.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -19303,12 +19481,15 @@
         <v>0.0</v>
       </c>
       <c r="CW61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -19609,11 +19790,14 @@
       </c>
       <c r="CW62" t="n">
         <v>618.0</v>
+      </c>
+      <c r="CX62" t="n">
+        <v>622.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -19913,12 +20097,15 @@
         <v>122.0</v>
       </c>
       <c r="CW63" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="CX63" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -20219,11 +20406,14 @@
       </c>
       <c r="CW64" t="n">
         <v>12408.0</v>
+      </c>
+      <c r="CX64" t="n">
+        <v>12617.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -20523,12 +20713,15 @@
         <v>0.0</v>
       </c>
       <c r="CW65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -20828,12 +21021,15 @@
         <v>49.0</v>
       </c>
       <c r="CW66" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CX66" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -21134,11 +21330,14 @@
       </c>
       <c r="CW67" t="n">
         <v>132.0</v>
+      </c>
+      <c r="CX67" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -21438,12 +21637,15 @@
         <v>175.0</v>
       </c>
       <c r="CW68" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="CX68" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -21744,11 +21946,14 @@
       </c>
       <c r="CW69" t="n">
         <v>89.0</v>
+      </c>
+      <c r="CX69" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -22049,11 +22254,14 @@
       </c>
       <c r="CW70" t="n">
         <v>309.0</v>
+      </c>
+      <c r="CX70" t="n">
+        <v>321.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -22354,11 +22562,14 @@
       </c>
       <c r="CW71" t="n">
         <v>6827.0</v>
+      </c>
+      <c r="CX71" t="n">
+        <v>6877.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -22658,12 +22869,15 @@
         <v>38.0</v>
       </c>
       <c r="CW72" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CX72" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -22964,11 +23178,14 @@
       </c>
       <c r="CW73" t="n">
         <v>2497.0</v>
+      </c>
+      <c r="CX73" t="n">
+        <v>2523.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -23268,12 +23485,15 @@
         <v>0.0</v>
       </c>
       <c r="CW74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -23574,11 +23794,14 @@
       </c>
       <c r="CW75" t="n">
         <v>1205.0</v>
+      </c>
+      <c r="CX75" t="n">
+        <v>1207.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -23878,12 +24101,15 @@
         <v>148.0</v>
       </c>
       <c r="CW76" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="CX76" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -24184,11 +24410,14 @@
       </c>
       <c r="CW77" t="n">
         <v>606.0</v>
+      </c>
+      <c r="CX77" t="n">
+        <v>617.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -24489,11 +24718,14 @@
       </c>
       <c r="CW78" t="n">
         <v>815.0</v>
+      </c>
+      <c r="CX78" t="n">
+        <v>817.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -24793,12 +25025,15 @@
         <v>0.0</v>
       </c>
       <c r="CW79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -25099,11 +25334,14 @@
       </c>
       <c r="CW80" t="n">
         <v>422.0</v>
+      </c>
+      <c r="CX80" t="n">
+        <v>423.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -25403,12 +25641,15 @@
         <v>32.0</v>
       </c>
       <c r="CW81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CX81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -25709,11 +25950,14 @@
       </c>
       <c r="CW82" t="n">
         <v>6350.0</v>
+      </c>
+      <c r="CX82" t="n">
+        <v>6378.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -26014,11 +26258,14 @@
       </c>
       <c r="CW83" t="n">
         <v>199.0</v>
+      </c>
+      <c r="CX83" t="n">
+        <v>202.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -26319,11 +26566,14 @@
       </c>
       <c r="CW84" t="n">
         <v>669.0</v>
+      </c>
+      <c r="CX84" t="n">
+        <v>675.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -26623,12 +26873,15 @@
         <v>520.0</v>
       </c>
       <c r="CW85" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="CX85" t="n">
         <v>520.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -26928,12 +27181,15 @@
         <v>0.0</v>
       </c>
       <c r="CW86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -27234,11 +27490,14 @@
       </c>
       <c r="CW87" t="n">
         <v>4303.0</v>
+      </c>
+      <c r="CX87" t="n">
+        <v>4304.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -27539,11 +27798,14 @@
       </c>
       <c r="CW88" t="n">
         <v>122.0</v>
+      </c>
+      <c r="CX88" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -27844,11 +28106,14 @@
       </c>
       <c r="CW89" t="n">
         <v>654.0</v>
+      </c>
+      <c r="CX89" t="n">
+        <v>658.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -28148,12 +28413,15 @@
         <v>65.0</v>
       </c>
       <c r="CW90" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CX90" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -28454,11 +28722,14 @@
       </c>
       <c r="CW91" t="n">
         <v>122.0</v>
+      </c>
+      <c r="CX91" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -28758,12 +29029,15 @@
         <v>231.0</v>
       </c>
       <c r="CW92" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="CX92" t="n">
         <v>231.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -29064,11 +29338,14 @@
       </c>
       <c r="CW93" t="n">
         <v>270.0</v>
+      </c>
+      <c r="CX93" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -29368,12 +29645,15 @@
         <v>0.0</v>
       </c>
       <c r="CW94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -29674,11 +29954,14 @@
       </c>
       <c r="CW95" t="n">
         <v>4482.0</v>
+      </c>
+      <c r="CX95" t="n">
+        <v>4547.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -29978,12 +30261,15 @@
         <v>282.0</v>
       </c>
       <c r="CW96" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="CX96" t="n">
         <v>284.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -30284,11 +30570,14 @@
       </c>
       <c r="CW97" t="n">
         <v>2596.0</v>
+      </c>
+      <c r="CX97" t="n">
+        <v>2628.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -30588,12 +30877,15 @@
         <v>0.0</v>
       </c>
       <c r="CW98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -30894,11 +31186,14 @@
       </c>
       <c r="CW99" t="n">
         <v>85.0</v>
+      </c>
+      <c r="CX99" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -31198,12 +31493,15 @@
         <v>46.0</v>
       </c>
       <c r="CW100" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CX100" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -31504,11 +31802,14 @@
       </c>
       <c r="CW101" t="n">
         <v>403.0</v>
+      </c>
+      <c r="CX101" t="n">
+        <v>405.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -31808,12 +32109,15 @@
         <v>55.0</v>
       </c>
       <c r="CW102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CX102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -32114,11 +32418,14 @@
       </c>
       <c r="CW103" t="n">
         <v>2190.0</v>
+      </c>
+      <c r="CX103" t="n">
+        <v>2292.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -32418,12 +32725,15 @@
         <v>0.0</v>
       </c>
       <c r="CW104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -32724,11 +33034,14 @@
       </c>
       <c r="CW105" t="n">
         <v>2074.0</v>
+      </c>
+      <c r="CX105" t="n">
+        <v>2089.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -33028,12 +33341,15 @@
         <v>56.0</v>
       </c>
       <c r="CW106" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="CX106" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -33333,12 +33649,15 @@
         <v>227.0</v>
       </c>
       <c r="CW107" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="CX107" t="n">
         <v>227.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -33638,12 +33957,15 @@
         <v>1743.0</v>
       </c>
       <c r="CW108" t="n">
+        <v>1743.0</v>
+      </c>
+      <c r="CX108" t="n">
         <v>1743.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -33944,11 +34266,14 @@
       </c>
       <c r="CW109" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CX109" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -34249,11 +34574,14 @@
       </c>
       <c r="CW110" t="n">
         <v>1655.0</v>
+      </c>
+      <c r="CX110" t="n">
+        <v>1668.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -34554,11 +34882,14 @@
       </c>
       <c r="CW111" t="n">
         <v>20594.0</v>
+      </c>
+      <c r="CX111" t="n">
+        <v>20947.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -34859,11 +35190,14 @@
       </c>
       <c r="CW112" t="n">
         <v>615.0</v>
+      </c>
+      <c r="CX112" t="n">
+        <v>616.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -35164,11 +35498,14 @@
       </c>
       <c r="CW113" t="n">
         <v>230.0</v>
+      </c>
+      <c r="CX113" t="n">
+        <v>232.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -35469,11 +35806,14 @@
       </c>
       <c r="CW114" t="n">
         <v>1959.0</v>
+      </c>
+      <c r="CX114" t="n">
+        <v>1984.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -35774,11 +36114,14 @@
       </c>
       <c r="CW115" t="n">
         <v>1330.0</v>
+      </c>
+      <c r="CX115" t="n">
+        <v>1332.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -36079,11 +36422,14 @@
       </c>
       <c r="CW116" t="n">
         <v>658.0</v>
+      </c>
+      <c r="CX116" t="n">
+        <v>659.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -36384,11 +36730,14 @@
       </c>
       <c r="CW117" t="n">
         <v>1493.0</v>
+      </c>
+      <c r="CX117" t="n">
+        <v>1494.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -36688,12 +37037,15 @@
         <v>70.0</v>
       </c>
       <c r="CW118" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CX118" t="n">
         <v>72.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -36993,12 +37345,15 @@
         <v>0.0</v>
       </c>
       <c r="CW119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -37299,11 +37654,14 @@
       </c>
       <c r="CW120" t="n">
         <v>454.0</v>
+      </c>
+      <c r="CX120" t="n">
+        <v>457.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -37604,11 +37962,14 @@
       </c>
       <c r="CW121" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CX121" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -37908,12 +38269,15 @@
         <v>73.0</v>
       </c>
       <c r="CW122" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CX122" t="n">
         <v>73.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -38213,12 +38577,15 @@
         <v>156.0</v>
       </c>
       <c r="CW123" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="CX123" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -38518,12 +38885,15 @@
         <v>1312.0</v>
       </c>
       <c r="CW124" t="n">
+        <v>1312.0</v>
+      </c>
+      <c r="CX124" t="n">
         <v>1312.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -38824,11 +39194,14 @@
       </c>
       <c r="CW125" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CX125" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -39128,12 +39501,15 @@
         <v>0.0</v>
       </c>
       <c r="CW126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -39433,12 +39809,15 @@
         <v>39.0</v>
       </c>
       <c r="CW127" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CX127" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -39739,11 +40118,14 @@
       </c>
       <c r="CW128" t="n">
         <v>497.0</v>
+      </c>
+      <c r="CX128" t="n">
+        <v>495.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -40044,11 +40426,14 @@
       </c>
       <c r="CW129" t="n">
         <v>2201.0</v>
+      </c>
+      <c r="CX129" t="n">
+        <v>2220.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -40349,11 +40734,14 @@
       </c>
       <c r="CW130" t="n">
         <v>639.0</v>
+      </c>
+      <c r="CX130" t="n">
+        <v>640.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -40654,11 +41042,14 @@
       </c>
       <c r="CW131" t="n">
         <v>114.0</v>
+      </c>
+      <c r="CX131" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -40959,11 +41350,14 @@
       </c>
       <c r="CW132" t="n">
         <v>1871.0</v>
+      </c>
+      <c r="CX132" t="n">
+        <v>1900.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -41264,11 +41658,14 @@
       </c>
       <c r="CW133" t="n">
         <v>1066.0</v>
+      </c>
+      <c r="CX133" t="n">
+        <v>1093.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -41568,12 +41965,15 @@
         <v>16.0</v>
       </c>
       <c r="CW134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CX134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -41874,11 +42274,14 @@
       </c>
       <c r="CW135" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CX135" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -42179,11 +42582,14 @@
       </c>
       <c r="CW136" t="n">
         <v>1778.0</v>
+      </c>
+      <c r="CX136" t="n">
+        <v>1786.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -42483,12 +42889,15 @@
         <v>46.0</v>
       </c>
       <c r="CW137" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CX137" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -42788,12 +43197,15 @@
         <v>6.0</v>
       </c>
       <c r="CW138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CX138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -43093,12 +43505,15 @@
         <v>9.0</v>
       </c>
       <c r="CW139" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CX139" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -43399,11 +43814,14 @@
       </c>
       <c r="CW140" t="n">
         <v>591.0</v>
+      </c>
+      <c r="CX140" t="n">
+        <v>601.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -43703,12 +44121,15 @@
         <v>71.0</v>
       </c>
       <c r="CW141" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="CX141" t="n">
         <v>71.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -44008,12 +44429,15 @@
         <v>2841.0</v>
       </c>
       <c r="CW142" t="n">
+        <v>2841.0</v>
+      </c>
+      <c r="CX142" t="n">
         <v>2841.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -44314,11 +44738,14 @@
       </c>
       <c r="CW143" t="n">
         <v>416.0</v>
+      </c>
+      <c r="CX143" t="n">
+        <v>417.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -44618,12 +45045,15 @@
         <v>290.0</v>
       </c>
       <c r="CW144" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="CX144" t="n">
         <v>297.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -44923,12 +45353,15 @@
         <v>191.0</v>
       </c>
       <c r="CW145" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="CX145" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -45229,11 +45662,14 @@
       </c>
       <c r="CW146" t="n">
         <v>330.0</v>
+      </c>
+      <c r="CX146" t="n">
+        <v>333.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -45534,11 +45970,14 @@
       </c>
       <c r="CW147" t="n">
         <v>937.0</v>
+      </c>
+      <c r="CX147" t="n">
+        <v>936.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -45839,11 +46278,14 @@
       </c>
       <c r="CW148" t="n">
         <v>307.0</v>
+      </c>
+      <c r="CX148" t="n">
+        <v>309.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -46144,11 +46586,14 @@
       </c>
       <c r="CW149" t="n">
         <v>1344.0</v>
+      </c>
+      <c r="CX149" t="n">
+        <v>1347.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -46449,11 +46894,14 @@
       </c>
       <c r="CW150" t="n">
         <v>515.0</v>
+      </c>
+      <c r="CX150" t="n">
+        <v>516.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -46754,11 +47202,14 @@
       </c>
       <c r="CW151" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CX151" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -47059,11 +47510,14 @@
       </c>
       <c r="CW152" t="n">
         <v>240.0</v>
+      </c>
+      <c r="CX152" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -47363,12 +47817,15 @@
         <v>378.0</v>
       </c>
       <c r="CW153" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="CX153" t="n">
         <v>380.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -47668,12 +48125,15 @@
         <v>0.0</v>
       </c>
       <c r="CW154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -47973,12 +48433,15 @@
         <v>0.0</v>
       </c>
       <c r="CW155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -48278,12 +48741,15 @@
         <v>0.0</v>
       </c>
       <c r="CW156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -48584,11 +49050,14 @@
       </c>
       <c r="CW157" t="n">
         <v>141.0</v>
+      </c>
+      <c r="CX157" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -48888,12 +49357,15 @@
         <v>0.0</v>
       </c>
       <c r="CW158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -49194,11 +49666,14 @@
       </c>
       <c r="CW159" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CX159" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -49499,11 +49974,14 @@
       </c>
       <c r="CW160" t="n">
         <v>207.0</v>
+      </c>
+      <c r="CX160" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -49804,11 +50282,14 @@
       </c>
       <c r="CW161" t="n">
         <v>161.0</v>
+      </c>
+      <c r="CX161" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -50109,11 +50590,14 @@
       </c>
       <c r="CW162" t="n">
         <v>250.0</v>
+      </c>
+      <c r="CX162" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -50413,12 +50897,15 @@
         <v>135.0</v>
       </c>
       <c r="CW163" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="CX163" t="n">
         <v>135.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -50718,12 +51205,15 @@
         <v>319.0</v>
       </c>
       <c r="CW164" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="CX164" t="n">
         <v>320.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -51023,12 +51513,15 @@
         <v>0.0</v>
       </c>
       <c r="CW165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -51328,12 +51821,15 @@
         <v>969.0</v>
       </c>
       <c r="CW166" t="n">
+        <v>969.0</v>
+      </c>
+      <c r="CX166" t="n">
         <v>969.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -51633,12 +52129,15 @@
         <v>66.0</v>
       </c>
       <c r="CW167" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CX167" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -51938,12 +52437,15 @@
         <v>0.0</v>
       </c>
       <c r="CW168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -52244,11 +52746,14 @@
       </c>
       <c r="CW169" t="n">
         <v>878.0</v>
+      </c>
+      <c r="CX169" t="n">
+        <v>919.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -52549,11 +53054,14 @@
       </c>
       <c r="CW170" t="n">
         <v>51.0</v>
+      </c>
+      <c r="CX170" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -52853,12 +53361,15 @@
         <v>0.0</v>
       </c>
       <c r="CW171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -53158,12 +53669,15 @@
         <v>282.0</v>
       </c>
       <c r="CW172" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="CX172" t="n">
         <v>282.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -53464,11 +53978,14 @@
       </c>
       <c r="CW173" t="n">
         <v>6975.0</v>
+      </c>
+      <c r="CX173" t="n">
+        <v>7143.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -53769,11 +54286,14 @@
       </c>
       <c r="CW174" t="n">
         <v>289.0</v>
+      </c>
+      <c r="CX174" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -54074,11 +54594,14 @@
       </c>
       <c r="CW175" t="n">
         <v>245.0</v>
+      </c>
+      <c r="CX175" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -54378,12 +54901,15 @@
         <v>46.0</v>
       </c>
       <c r="CW176" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CX176" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -54684,11 +55210,14 @@
       </c>
       <c r="CW177" t="n">
         <v>875.0</v>
+      </c>
+      <c r="CX177" t="n">
+        <v>878.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -54989,11 +55518,14 @@
       </c>
       <c r="CW178" t="n">
         <v>2096.0</v>
+      </c>
+      <c r="CX178" t="n">
+        <v>2111.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -55293,12 +55825,15 @@
         <v>272.0</v>
       </c>
       <c r="CW179" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="CX179" t="n">
         <v>272.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -55598,12 +56133,15 @@
         <v>0.0</v>
       </c>
       <c r="CW180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -55904,11 +56442,14 @@
       </c>
       <c r="CW181" t="n">
         <v>9686.0</v>
+      </c>
+      <c r="CX181" t="n">
+        <v>9712.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -56208,12 +56749,15 @@
         <v>104.0</v>
       </c>
       <c r="CW182" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="CX182" t="n">
         <v>104.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -56514,11 +57058,14 @@
       </c>
       <c r="CW183" t="n">
         <v>119.0</v>
+      </c>
+      <c r="CX183" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -56819,11 +57366,14 @@
       </c>
       <c r="CW184" t="n">
         <v>3052.0</v>
+      </c>
+      <c r="CX184" t="n">
+        <v>3322.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -57124,11 +57674,14 @@
       </c>
       <c r="CW185" t="n">
         <v>346.0</v>
+      </c>
+      <c r="CX185" t="n">
+        <v>352.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -57429,11 +57982,14 @@
       </c>
       <c r="CW186" t="n">
         <v>504.0</v>
+      </c>
+      <c r="CX186" t="n">
+        <v>505.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -57734,11 +58290,14 @@
       </c>
       <c r="CW187" t="n">
         <v>2564.0</v>
+      </c>
+      <c r="CX187" t="n">
+        <v>2589.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -58039,11 +58598,14 @@
       </c>
       <c r="CW188" t="n">
         <v>330.0</v>
+      </c>
+      <c r="CX188" t="n">
+        <v>332.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -58344,11 +58906,14 @@
       </c>
       <c r="CW189" t="n">
         <v>266.0</v>
+      </c>
+      <c r="CX189" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -58648,12 +59213,15 @@
         <v>1489.0</v>
       </c>
       <c r="CW190" t="n">
+        <v>1489.0</v>
+      </c>
+      <c r="CX190" t="n">
         <v>1489.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -58953,12 +59521,15 @@
         <v>0.0</v>
       </c>
       <c r="CW191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -59258,12 +59829,15 @@
         <v>144.0</v>
       </c>
       <c r="CW192" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="CX192" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -59564,11 +60138,14 @@
       </c>
       <c r="CW193" t="n">
         <v>357.0</v>
+      </c>
+      <c r="CX193" t="n">
+        <v>358.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -59868,12 +60445,15 @@
         <v>0.0</v>
       </c>
       <c r="CW194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -60173,12 +60753,15 @@
         <v>168.0</v>
       </c>
       <c r="CW195" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="CX195" t="n">
         <v>168.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -60478,12 +61061,15 @@
         <v>28.0</v>
       </c>
       <c r="CW196" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CX196" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -60784,11 +61370,14 @@
       </c>
       <c r="CW197" t="n">
         <v>243.0</v>
+      </c>
+      <c r="CX197" t="n">
+        <v>244.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -61089,11 +61678,14 @@
       </c>
       <c r="CW198" t="n">
         <v>698.0</v>
+      </c>
+      <c r="CX198" t="n">
+        <v>699.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -61394,11 +61986,14 @@
       </c>
       <c r="CW199" t="n">
         <v>55.0</v>
+      </c>
+      <c r="CX199" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -61698,12 +62293,15 @@
         <v>3.0</v>
       </c>
       <c r="CW200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CX200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -62004,11 +62602,14 @@
       </c>
       <c r="CW201" t="n">
         <v>395.0</v>
+      </c>
+      <c r="CX201" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -62309,11 +62910,14 @@
       </c>
       <c r="CW202" t="n">
         <v>1708.0</v>
+      </c>
+      <c r="CX202" t="n">
+        <v>1720.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -62614,11 +63218,14 @@
       </c>
       <c r="CW203" t="n">
         <v>471.0</v>
+      </c>
+      <c r="CX203" t="n">
+        <v>474.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -62919,11 +63526,14 @@
       </c>
       <c r="CW204" t="n">
         <v>1525.0</v>
+      </c>
+      <c r="CX204" t="n">
+        <v>1529.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -63223,12 +63833,15 @@
         <v>310.0</v>
       </c>
       <c r="CW205" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="CX205" t="n">
         <v>310.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -63528,12 +64141,15 @@
         <v>199.0</v>
       </c>
       <c r="CW206" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="CX206" t="n">
         <v>199.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -63834,11 +64450,14 @@
       </c>
       <c r="CW207" t="n">
         <v>236.0</v>
+      </c>
+      <c r="CX207" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -64138,12 +64757,15 @@
         <v>935.0</v>
       </c>
       <c r="CW208" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="CX208" t="n">
         <v>935.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -64444,11 +65066,14 @@
       </c>
       <c r="CW209" t="n">
         <v>229.0</v>
+      </c>
+      <c r="CX209" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -64749,11 +65374,14 @@
       </c>
       <c r="CW210" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CX210" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -65053,12 +65681,15 @@
         <v>0.0</v>
       </c>
       <c r="CW211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -65359,11 +65990,14 @@
       </c>
       <c r="CW212" t="n">
         <v>116.0</v>
+      </c>
+      <c r="CX212" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -65664,11 +66298,14 @@
       </c>
       <c r="CW213" t="n">
         <v>628.0</v>
+      </c>
+      <c r="CX213" t="n">
+        <v>632.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -65968,12 +66605,15 @@
         <v>22.0</v>
       </c>
       <c r="CW214" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CX214" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -66274,11 +66914,14 @@
       </c>
       <c r="CW215" t="n">
         <v>7515.0</v>
+      </c>
+      <c r="CX215" t="n">
+        <v>7564.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -66579,11 +67222,14 @@
       </c>
       <c r="CW216" t="n">
         <v>447.0</v>
+      </c>
+      <c r="CX216" t="n">
+        <v>449.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -66884,11 +67530,14 @@
       </c>
       <c r="CW217" t="n">
         <v>1671.0</v>
+      </c>
+      <c r="CX217" t="n">
+        <v>1679.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -67189,11 +67838,14 @@
       </c>
       <c r="CW218" t="n">
         <v>319.0</v>
+      </c>
+      <c r="CX218" t="n">
+        <v>320.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -67493,12 +68145,15 @@
         <v>58.0</v>
       </c>
       <c r="CW219" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CX219" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -67798,12 +68453,15 @@
         <v>100.0</v>
       </c>
       <c r="CW220" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CX220" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -68103,12 +68761,15 @@
         <v>184.0</v>
       </c>
       <c r="CW221" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="CX221" t="n">
         <v>184.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -68409,11 +69070,14 @@
       </c>
       <c r="CW222" t="n">
         <v>346.0</v>
+      </c>
+      <c r="CX222" t="n">
+        <v>347.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -68714,11 +69378,14 @@
       </c>
       <c r="CW223" t="n">
         <v>33230.0</v>
+      </c>
+      <c r="CX223" t="n">
+        <v>33349.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -69019,11 +69686,14 @@
       </c>
       <c r="CW224" t="n">
         <v>7917.0</v>
+      </c>
+      <c r="CX224" t="n">
+        <v>7918.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -69323,12 +69993,15 @@
         <v>11.0</v>
       </c>
       <c r="CW225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CX225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -69628,12 +70301,15 @@
         <v>0.0</v>
       </c>
       <c r="CW226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -69933,12 +70609,15 @@
         <v>22.0</v>
       </c>
       <c r="CW227" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CX227" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -70239,11 +70918,14 @@
       </c>
       <c r="CW228" t="n">
         <v>890.0</v>
+      </c>
+      <c r="CX228" t="n">
+        <v>893.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -70544,11 +71226,14 @@
       </c>
       <c r="CW229" t="n">
         <v>7851.0</v>
+      </c>
+      <c r="CX229" t="n">
+        <v>7866.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -70848,12 +71533,15 @@
         <v>0.0</v>
       </c>
       <c r="CW230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -71154,11 +71842,14 @@
       </c>
       <c r="CW231" t="n">
         <v>171.0</v>
+      </c>
+      <c r="CX231" t="n">
+        <v>173.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -71458,12 +72149,15 @@
         <v>632.0</v>
       </c>
       <c r="CW232" t="n">
+        <v>632.0</v>
+      </c>
+      <c r="CX232" t="n">
         <v>632.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -71764,11 +72458,14 @@
       </c>
       <c r="CW233" t="n">
         <v>1797.0</v>
+      </c>
+      <c r="CX233" t="n">
+        <v>1801.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -72068,12 +72765,15 @@
         <v>293.0</v>
       </c>
       <c r="CW234" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="CX234" t="n">
         <v>293.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -72373,12 +73073,15 @@
         <v>104.0</v>
       </c>
       <c r="CW235" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="CX235" t="n">
         <v>104.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -72678,12 +73381,15 @@
         <v>0.0</v>
       </c>
       <c r="CW236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -72984,11 +73690,14 @@
       </c>
       <c r="CW237" t="n">
         <v>1394.0</v>
+      </c>
+      <c r="CX237" t="n">
+        <v>1398.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -73288,12 +73997,15 @@
         <v>9.0</v>
       </c>
       <c r="CW238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CX238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -73594,11 +74306,14 @@
       </c>
       <c r="CW239" t="n">
         <v>740.0</v>
+      </c>
+      <c r="CX239" t="n">
+        <v>744.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -73899,11 +74614,14 @@
       </c>
       <c r="CW240" t="n">
         <v>358.0</v>
+      </c>
+      <c r="CX240" t="n">
+        <v>360.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -74203,12 +74921,15 @@
         <v>437.0</v>
       </c>
       <c r="CW241" t="n">
+        <v>437.0</v>
+      </c>
+      <c r="CX241" t="n">
         <v>437.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -74508,12 +75229,15 @@
         <v>595.0</v>
       </c>
       <c r="CW242" t="n">
+        <v>597.0</v>
+      </c>
+      <c r="CX242" t="n">
         <v>597.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -74813,12 +75537,15 @@
         <v>0.0</v>
       </c>
       <c r="CW243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -75119,11 +75846,14 @@
       </c>
       <c r="CW244" t="n">
         <v>356.0</v>
+      </c>
+      <c r="CX244" t="n">
+        <v>358.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -75424,11 +76154,14 @@
       </c>
       <c r="CW245" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CX245" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -75728,12 +76461,15 @@
         <v>0.0</v>
       </c>
       <c r="CW246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -76033,12 +76769,15 @@
         <v>276.0</v>
       </c>
       <c r="CW247" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="CX247" t="n">
         <v>276.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -76338,12 +77077,15 @@
         <v>191.0</v>
       </c>
       <c r="CW248" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="CX248" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -76644,11 +77386,14 @@
       </c>
       <c r="CW249" t="n">
         <v>4790.0</v>
+      </c>
+      <c r="CX249" t="n">
+        <v>4869.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -76949,11 +77694,14 @@
       </c>
       <c r="CW250" t="n">
         <v>752.0</v>
+      </c>
+      <c r="CX250" t="n">
+        <v>755.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -77253,12 +78001,15 @@
         <v>175.0</v>
       </c>
       <c r="CW251" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="CX251" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -77559,11 +78310,14 @@
       </c>
       <c r="CW252" t="n">
         <v>1003.0</v>
+      </c>
+      <c r="CX252" t="n">
+        <v>1012.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -77864,11 +78618,14 @@
       </c>
       <c r="CW253" t="n">
         <v>1262.0</v>
+      </c>
+      <c r="CX253" t="n">
+        <v>1295.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -78168,12 +78925,15 @@
         <v>0.0</v>
       </c>
       <c r="CW254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -78474,11 +79234,14 @@
       </c>
       <c r="CW255" t="n">
         <v>209.0</v>
+      </c>
+      <c r="CX255" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -78779,11 +79542,14 @@
       </c>
       <c r="CW256" t="n">
         <v>186.0</v>
+      </c>
+      <c r="CX256" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -79084,6 +79850,9 @@
       </c>
       <c r="CW257" t="n">
         <v>142.0</v>
+      </c>
+      <c r="CX257" t="n">
+        <v>147.0</v>
       </c>
     </row>
   </sheetData>
